--- a/app/Licenciatura_em_Engenharia_Electronica.xlsx
+++ b/app/Licenciatura_em_Engenharia_Electronica.xlsx
@@ -9,38 +9,33 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="20154806" sheetId="2" r:id="rId5"/>
-    <sheet name="20151740" sheetId="3" r:id="rId6"/>
-    <sheet name="20151760" sheetId="4" r:id="rId7"/>
-    <sheet name="20154796" sheetId="5" r:id="rId8"/>
-    <sheet name="20151748" sheetId="6" r:id="rId9"/>
-    <sheet name="20151752" sheetId="7" r:id="rId10"/>
-    <sheet name="20151749" sheetId="8" r:id="rId11"/>
-    <sheet name="20151756" sheetId="9" r:id="rId12"/>
-    <sheet name="20154432" sheetId="10" r:id="rId13"/>
-    <sheet name="20151755" sheetId="11" r:id="rId14"/>
-    <sheet name="20151761" sheetId="12" r:id="rId15"/>
-    <sheet name="20151750" sheetId="13" r:id="rId16"/>
-    <sheet name="20151747" sheetId="14" r:id="rId17"/>
-    <sheet name="20151751" sheetId="15" r:id="rId18"/>
-    <sheet name="20151753" sheetId="16" r:id="rId19"/>
-    <sheet name="20151754" sheetId="17" r:id="rId20"/>
-    <sheet name="20154829" sheetId="18" r:id="rId21"/>
-    <sheet name="20151743" sheetId="19" r:id="rId22"/>
-    <sheet name="20151759" sheetId="20" r:id="rId23"/>
-    <sheet name="20151745" sheetId="21" r:id="rId24"/>
-    <sheet name="20151742" sheetId="22" r:id="rId25"/>
-    <sheet name="20151741" sheetId="23" r:id="rId26"/>
-    <sheet name="20151764" sheetId="24" r:id="rId27"/>
-    <sheet name="20154431" sheetId="25" r:id="rId28"/>
-    <sheet name="20151762" sheetId="26" r:id="rId29"/>
-    <sheet name="20151758" sheetId="27" r:id="rId30"/>
-    <sheet name="20151746" sheetId="28" r:id="rId31"/>
-    <sheet name="20151763" sheetId="29" r:id="rId32"/>
-    <sheet name="20151757" sheetId="30" r:id="rId33"/>
-    <sheet name="20151744" sheetId="31" r:id="rId34"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
+    <sheet name="20151740" sheetId="2" r:id="rId5"/>
+    <sheet name="20151760" sheetId="3" r:id="rId6"/>
+    <sheet name="20151748" sheetId="4" r:id="rId7"/>
+    <sheet name="20151752" sheetId="5" r:id="rId8"/>
+    <sheet name="20151749" sheetId="6" r:id="rId9"/>
+    <sheet name="20151756" sheetId="7" r:id="rId10"/>
+    <sheet name="20151755" sheetId="8" r:id="rId11"/>
+    <sheet name="20151761" sheetId="9" r:id="rId12"/>
+    <sheet name="20151750" sheetId="10" r:id="rId13"/>
+    <sheet name="20151747" sheetId="11" r:id="rId14"/>
+    <sheet name="20151751" sheetId="12" r:id="rId15"/>
+    <sheet name="20151753" sheetId="13" r:id="rId16"/>
+    <sheet name="20151754" sheetId="14" r:id="rId17"/>
+    <sheet name="20151743" sheetId="15" r:id="rId18"/>
+    <sheet name="20151759" sheetId="16" r:id="rId19"/>
+    <sheet name="20151745" sheetId="17" r:id="rId20"/>
+    <sheet name="20151742" sheetId="18" r:id="rId21"/>
+    <sheet name="20151741" sheetId="19" r:id="rId22"/>
+    <sheet name="20151764" sheetId="20" r:id="rId23"/>
+    <sheet name="20151762" sheetId="21" r:id="rId24"/>
+    <sheet name="20151758" sheetId="22" r:id="rId25"/>
+    <sheet name="20151746" sheetId="23" r:id="rId26"/>
+    <sheet name="20151763" sheetId="24" r:id="rId27"/>
+    <sheet name="20151757" sheetId="25" r:id="rId28"/>
+    <sheet name="20151744" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -48,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -176,21 +171,12 @@
     <t>Universidade Eduardo Mondlane</t>
   </si>
   <si>
+    <t>Faculdade de Engenharia</t>
+  </si>
+  <si>
     <t>Licenciatura em Engenharia Electrónica</t>
   </si>
   <si>
-    <t>Vuvo</t>
-  </si>
-  <si>
-    <t>Ivan Ismael</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Faculdade de Engenharia</t>
-  </si>
-  <si>
     <t>Vilanculo</t>
   </si>
   <si>
@@ -206,9 +192,6 @@
     <t>Cacilda Albino</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -254,12 +237,6 @@
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
-    <t>Uando</t>
-  </si>
-  <si>
-    <t>César António</t>
-  </si>
-  <si>
     <t>Tembue</t>
   </si>
   <si>
@@ -317,9 +294,6 @@
     <t>Maria Julio Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>100200668084B</t>
   </si>
   <si>
@@ -350,12 +324,6 @@
     <t>+258824188008</t>
   </si>
   <si>
-    <t>Nenane</t>
-  </si>
-  <si>
-    <t>Romão Martins</t>
-  </si>
-  <si>
     <t>Muxanga</t>
   </si>
   <si>
@@ -371,9 +339,6 @@
     <t>Brigida Daniel Mabunda</t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -401,9 +366,6 @@
     <t>Dorica Zacarias</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070100816032N</t>
   </si>
   <si>
@@ -425,9 +387,6 @@
     <t>Cristina Mateus Muianga</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110102278952B</t>
   </si>
   <si>
@@ -473,9 +432,6 @@
     <t>Roda Titosse</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>060502135505I</t>
   </si>
   <si>
@@ -533,12 +489,6 @@
     <t>Outra - Cid.Maputo</t>
   </si>
   <si>
-    <t>Lichucha</t>
-  </si>
-  <si>
-    <t>Gil Bernardo</t>
-  </si>
-  <si>
     <t>Langa</t>
   </si>
   <si>
@@ -554,9 +504,6 @@
     <t>Elisa MoisÉs Savela</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>110202329124I</t>
   </si>
   <si>
@@ -575,9 +522,6 @@
     <t>Adelina Luis Manhique</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101523848P</t>
   </si>
   <si>
@@ -668,9 +612,6 @@
     <t>Fatima Alexandre</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>041304763007F</t>
   </si>
   <si>
@@ -680,12 +621,6 @@
     <t>Escola Secundaria 25 de Setembro</t>
   </si>
   <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Laudia Suneila</t>
-  </si>
-  <si>
     <t>Chisseve</t>
   </si>
   <si>
@@ -740,9 +675,6 @@
     <t>Maria Hassane Maula</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110101562377M</t>
   </si>
   <si>
@@ -767,9 +699,6 @@
     <t>Alda ChaÚque</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500561478P</t>
   </si>
   <si>
@@ -789,9 +718,6 @@
   </si>
   <si>
     <t>Joanita Mesa</t>
-  </si>
-  <si>
-    <t>Distrito de Nhamatanda</t>
   </si>
   <si>
     <t>Talao de Bilhete de Identificacao</t>
@@ -2008,7 +1934,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2021,7 +1949,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2058,7 +1986,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154432</v>
+        <v>20151750</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2082,7 +2010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2098,7 +2026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2113,7 +2041,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -2127,7 +2057,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2141,7 +2073,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2162,7 +2096,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2171,14 +2107,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -2188,13 +2128,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -2289,7 +2233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2315,7 +2259,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -2329,7 +2275,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -2580,7 +2528,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2594,7 +2542,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -2631,7 +2579,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151755</v>
+        <v>20151747</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2655,7 +2603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2671,7 +2619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2687,7 +2635,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2703,7 +2651,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2719,7 +2667,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2734,9 +2682,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2744,7 +2690,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2755,7 +2701,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2764,7 +2710,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2776,7 +2722,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2784,7 +2730,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2880,7 +2826,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2923,7 +2869,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3175,7 +3121,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3189,7 +3135,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3226,7 +3172,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151761</v>
+        <v>20151751</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3250,7 +3196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3266,7 +3212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3282,7 +3228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3298,7 +3244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3314,7 +3260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3329,9 +3275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>117</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3339,7 +3283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3350,7 +3294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3359,7 +3303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3371,7 +3315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3379,7 +3323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3475,7 +3419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3502,7 +3446,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3518,7 +3462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3770,7 +3714,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -3784,7 +3728,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3821,7 +3765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151750</v>
+        <v>20151753</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3845,7 +3789,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3861,7 +3805,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3877,7 +3821,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3893,7 +3837,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3909,7 +3853,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3924,9 +3868,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3934,7 +3876,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3945,7 +3887,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3954,7 +3896,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3966,7 +3908,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3974,7 +3916,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4070,7 +4012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4097,7 +4039,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4113,7 +4055,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4365,7 +4307,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4379,7 +4321,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4416,7 +4358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151747</v>
+        <v>20151754</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4440,7 +4382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4456,7 +4398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4472,7 +4414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4488,7 +4430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4504,7 +4446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4519,9 +4461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4529,7 +4469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4540,7 +4480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4549,7 +4489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4561,7 +4501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4569,7 +4509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4665,7 +4605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4692,7 +4632,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4708,7 +4648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4960,7 +4900,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -4974,7 +4914,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5011,7 +4951,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151751</v>
+        <v>20151743</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5035,7 +4975,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5051,7 +4991,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5067,7 +5007,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5083,7 +5023,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5099,7 +5039,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5114,9 +5054,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5124,7 +5062,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5135,7 +5073,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5144,7 +5082,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5156,7 +5094,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5164,7 +5102,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5260,7 +5198,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5303,7 +5241,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5555,7 +5493,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -5569,7 +5507,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5606,7 +5544,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151753</v>
+        <v>20151759</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5630,7 +5568,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5646,7 +5584,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5662,7 +5600,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5678,7 +5616,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5694,7 +5632,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5709,9 +5647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5719,7 +5655,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5730,7 +5666,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5739,7 +5675,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5751,7 +5687,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5759,7 +5695,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5855,7 +5791,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5898,7 +5834,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6150,7 +6086,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6164,7 +6100,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -6201,7 +6137,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151754</v>
+        <v>20151745</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6225,7 +6161,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6241,7 +6177,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6257,7 +6193,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6273,7 +6209,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6289,7 +6225,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6304,9 +6240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6314,7 +6248,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6325,7 +6259,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6334,7 +6268,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6346,7 +6280,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6354,7 +6288,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6450,7 +6384,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6477,7 +6411,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6493,7 +6427,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6744,7 +6678,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6757,7 +6693,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -6794,7 +6730,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154829</v>
+        <v>20151742</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6818,7 +6754,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6834,7 +6770,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6849,7 +6785,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6863,7 +6801,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6877,7 +6817,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6898,7 +6840,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6907,14 +6851,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6924,13 +6872,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7025,7 +6977,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7051,7 +7003,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7065,7 +7019,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7316,7 +7272,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -7330,7 +7286,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7367,7 +7323,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151743</v>
+        <v>20151741</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7391,7 +7347,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7407,7 +7363,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7423,7 +7379,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7439,7 +7395,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7455,7 +7411,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7470,9 +7426,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>168</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7480,7 +7434,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7491,7 +7445,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7500,7 +7454,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7512,7 +7466,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7520,7 +7474,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7616,7 +7570,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7659,7 +7613,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7910,7 +7864,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7923,7 +7879,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7960,7 +7916,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154806</v>
+        <v>20151740</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7984,7 +7940,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8000,7 +7956,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8015,7 +7971,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8029,7 +7987,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8043,7 +8003,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8064,7 +8026,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8073,14 +8037,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8090,13 +8058,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -8191,7 +8163,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8217,7 +8189,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -8231,7 +8205,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -8482,7 +8458,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -8496,7 +8472,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -8533,7 +8509,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151759</v>
+        <v>20151764</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8557,7 +8533,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8573,7 +8549,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8589,7 +8565,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8605,7 +8581,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8621,7 +8597,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8636,9 +8612,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8646,7 +8620,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8657,7 +8631,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8666,7 +8640,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8678,7 +8652,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8686,7 +8660,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8782,7 +8756,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8809,7 +8783,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8825,7 +8799,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9077,7 +9051,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9091,7 +9065,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -9128,7 +9102,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151745</v>
+        <v>20151762</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9152,7 +9126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9168,7 +9142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9184,7 +9158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9200,7 +9174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9215,9 +9189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>183</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9231,9 +9203,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9241,7 +9211,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9252,7 +9222,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9261,7 +9231,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9273,7 +9243,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9281,7 +9251,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9377,7 +9347,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9404,7 +9374,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9420,7 +9390,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9672,7 +9642,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -9686,7 +9656,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -9723,7 +9693,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151742</v>
+        <v>20151758</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9747,7 +9717,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9763,7 +9733,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9779,7 +9749,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9795,7 +9765,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9811,7 +9781,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9826,9 +9796,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9836,7 +9804,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9847,7 +9815,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9856,7 +9824,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9868,7 +9836,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9876,7 +9844,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9972,7 +9940,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9999,7 +9967,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10015,7 +9983,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10267,7 +10235,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10281,7 +10249,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10318,7 +10286,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151741</v>
+        <v>20151746</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10342,7 +10310,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10358,7 +10326,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10374,7 +10342,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10390,7 +10358,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10406,7 +10374,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10421,9 +10389,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10431,7 +10397,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10442,7 +10408,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10451,7 +10417,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10463,7 +10429,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10471,7 +10437,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10567,7 +10533,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10610,7 +10576,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10862,7 +10828,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10876,7 +10842,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10913,7 +10879,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151764</v>
+        <v>20151763</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10937,7 +10903,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10953,7 +10919,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10969,7 +10935,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10985,7 +10951,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11001,7 +10967,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11016,9 +10982,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11026,7 +10990,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11037,7 +11001,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11046,7 +11010,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11058,7 +11022,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11066,7 +11030,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11162,7 +11126,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11189,7 +11153,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11205,7 +11169,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11456,7 +11420,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11469,7 +11435,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -11506,7 +11472,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154431</v>
+        <v>20151757</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11530,7 +11496,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11546,7 +11512,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11561,7 +11527,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11575,7 +11543,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11589,7 +11559,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11610,7 +11582,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11619,14 +11593,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11636,13 +11614,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>1956197</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11737,7 +11719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11763,7 +11745,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11777,7 +11761,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12028,7 +12014,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12042,7 +12028,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -12079,7 +12065,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151762</v>
+        <v>20151744</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12103,7 +12089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12119,7 +12105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12135,7 +12121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12151,7 +12137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12166,7 +12152,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>232</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12180,9 +12168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12190,7 +12176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12201,7 +12187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12210,7 +12196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12222,7 +12208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12230,7 +12216,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12326,7 +12312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12353,7 +12339,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12369,7 +12355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12572,6 +12558,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -12621,7 +12663,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -12635,7 +12677,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -12672,7 +12714,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151758</v>
+        <v>20151760</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12696,7 +12738,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12712,7 +12754,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12728,7 +12770,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12744,7 +12786,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12760,7 +12802,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12775,9 +12817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12785,7 +12825,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12796,7 +12836,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12805,7 +12845,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12817,7 +12857,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12825,7 +12865,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12921,7 +12961,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12948,7 +12988,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12964,7 +13004,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13162,3037 +13202,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151746</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151763</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151740</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151757</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1956197</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151744</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -16247,7 +13256,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -16261,7 +13270,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -16298,7 +13307,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151760</v>
+        <v>20151748</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16322,7 +13331,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16338,7 +13347,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16354,7 +13363,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16370,7 +13379,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16386,7 +13395,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16401,9 +13410,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16411,7 +13418,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16422,7 +13429,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16431,7 +13438,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16443,7 +13450,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16451,7 +13458,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16547,7 +13554,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16574,7 +13581,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16590,7 +13597,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16841,7 +13848,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -16854,7 +13863,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -16891,7 +13900,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154796</v>
+        <v>20151752</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16915,7 +13924,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16931,7 +13940,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16946,7 +13955,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -16960,7 +13971,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -16974,7 +13987,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -16995,7 +14010,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17004,14 +14021,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17021,13 +14042,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>110102679201</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17122,7 +14147,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17148,7 +14173,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17162,7 +14189,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17413,7 +14442,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -17427,7 +14456,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -17464,7 +14493,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151748</v>
+        <v>20151749</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17488,7 +14517,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17504,7 +14533,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17520,7 +14549,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17536,7 +14565,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17552,7 +14581,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17567,9 +14596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17577,7 +14604,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17588,7 +14615,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17597,7 +14624,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17609,7 +14636,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17617,7 +14644,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17713,7 +14740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17740,7 +14767,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17756,7 +14783,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18008,7 +15035,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -18022,7 +15049,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -18059,7 +15086,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151752</v>
+        <v>20151756</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18083,7 +15110,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18099,7 +15126,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18115,7 +15142,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18131,7 +15158,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18147,7 +15174,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18162,9 +15189,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18172,7 +15197,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18183,7 +15208,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18192,7 +15217,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18204,15 +15229,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110102679201</v>
+      <c r="H17" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18308,7 +15333,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18335,7 +15360,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18351,7 +15376,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18603,7 +15628,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -18617,7 +15642,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -18654,7 +15679,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151749</v>
+        <v>20151755</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18678,7 +15703,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18694,7 +15719,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18710,7 +15735,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18726,7 +15751,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18742,7 +15767,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18757,9 +15782,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18767,7 +15790,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18778,7 +15801,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18787,7 +15810,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18799,7 +15822,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18807,7 +15830,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18903,7 +15926,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18930,7 +15953,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18946,7 +15969,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19198,7 +16221,7 @@
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
       <c r="A3" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -19212,7 +16235,7 @@
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="15.6">
       <c r="A4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -19249,7 +16272,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151756</v>
+        <v>20151761</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19273,7 +16296,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19289,7 +16312,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19305,7 +16328,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19321,7 +16344,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19337,7 +16360,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19352,9 +16375,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19362,7 +16383,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19373,7 +16394,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19382,7 +16403,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19394,7 +16415,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19402,7 +16423,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19498,7 +16519,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19525,7 +16546,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19541,7 +16562,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
